--- a/documentacao/sprints.xlsx
+++ b/documentacao/sprints.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21916"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_22e7\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/2s2019-t3/documentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87B75E8-B745-4172-9A16-90E2AFFCD05D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -19,9 +18,12 @@
     <sheet name="BLOCOS" sheetId="6" r:id="rId4"/>
     <sheet name="VALIDAR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -94,9 +96,6 @@
     <t>2. Azure Devops</t>
   </si>
   <si>
-    <t>3. Padrões de Projeto - Solid</t>
-  </si>
-  <si>
     <t xml:space="preserve">         3.1 - Dominio (Code First)</t>
   </si>
   <si>
@@ -371,13 +370,16 @@
   </si>
   <si>
     <t>7. Trabalhar em equipe (2)</t>
+  </si>
+  <si>
+    <t>3. Padrões de Projeto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,7 +508,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -516,7 +518,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1101,40 +1103,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -1146,48 +1148,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DM103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.5703125" style="5" customWidth="1"/>
-    <col min="8" max="16" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="29" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="40" width="7.42578125" style="5" customWidth="1"/>
-    <col min="41" max="41" width="7.42578125" style="6" customWidth="1"/>
-    <col min="42" max="45" width="7.42578125" style="5" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" style="6" customWidth="1"/>
-    <col min="47" max="50" width="7.42578125" style="5" customWidth="1"/>
-    <col min="51" max="53" width="6.85546875" style="5" customWidth="1"/>
-    <col min="54" max="68" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="88" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.140625" style="5" customWidth="1"/>
-    <col min="95" max="95" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="96" max="100" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="6.7109375" style="5" customWidth="1"/>
-    <col min="102" max="104" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="105" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="45.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.5" style="5" customWidth="1"/>
+    <col min="8" max="16" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="40" width="7.5" style="5" customWidth="1"/>
+    <col min="41" max="41" width="7.5" style="6" customWidth="1"/>
+    <col min="42" max="45" width="7.5" style="5" customWidth="1"/>
+    <col min="46" max="46" width="7.5" style="6" customWidth="1"/>
+    <col min="47" max="50" width="7.5" style="5" customWidth="1"/>
+    <col min="51" max="53" width="6.83203125" style="5" customWidth="1"/>
+    <col min="54" max="68" width="6.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="6.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="88" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.1640625" style="5" customWidth="1"/>
+    <col min="95" max="95" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="96" max="100" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="6.6640625" style="5" customWidth="1"/>
+    <col min="102" max="104" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="105" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" s="5" customFormat="1">
+    <row r="1" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="74" t="s">
         <v>5</v>
@@ -1315,7 +1317,7 @@
       <c r="CY1" s="74"/>
       <c r="CZ1" s="74"/>
     </row>
-    <row r="2" spans="1:117" s="43" customFormat="1">
+    <row r="2" spans="1:117" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
@@ -1642,7 +1644,7 @@
       <c r="DL2" s="34"/>
       <c r="DM2" s="34"/>
     </row>
-    <row r="3" spans="1:117" s="27" customFormat="1">
+    <row r="3" spans="1:117" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1688,7 @@
       <c r="CW3" s="39"/>
       <c r="CZ3" s="44"/>
     </row>
-    <row r="4" spans="1:117" s="5" customFormat="1">
+    <row r="4" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
@@ -1728,9 +1730,9 @@
       <c r="CW4" s="40"/>
       <c r="CZ4" s="45"/>
     </row>
-    <row r="5" spans="1:117" s="5" customFormat="1">
+    <row r="5" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="11"/>
@@ -1771,9 +1773,9 @@
       <c r="CW5" s="40"/>
       <c r="CZ5" s="45"/>
     </row>
-    <row r="6" spans="1:117" s="5" customFormat="1">
+    <row r="6" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="11"/>
@@ -1814,9 +1816,9 @@
       <c r="CW6" s="40"/>
       <c r="CZ6" s="45"/>
     </row>
-    <row r="7" spans="1:117" s="5" customFormat="1">
+    <row r="7" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="11"/>
@@ -1857,9 +1859,9 @@
       <c r="CW7" s="40"/>
       <c r="CZ7" s="45"/>
     </row>
-    <row r="8" spans="1:117" s="5" customFormat="1">
+    <row r="8" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="11"/>
@@ -1900,9 +1902,9 @@
       <c r="CW8" s="40"/>
       <c r="CZ8" s="45"/>
     </row>
-    <row r="9" spans="1:117" s="5" customFormat="1">
+    <row r="9" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="11"/>
@@ -1943,9 +1945,9 @@
       <c r="CW9" s="40"/>
       <c r="CZ9" s="45"/>
     </row>
-    <row r="10" spans="1:117" s="5" customFormat="1">
+    <row r="10" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="11"/>
@@ -1986,9 +1988,9 @@
       <c r="CW10" s="40"/>
       <c r="CZ10" s="45"/>
     </row>
-    <row r="11" spans="1:117" s="5" customFormat="1">
+    <row r="11" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="11"/>
@@ -2029,9 +2031,9 @@
       <c r="CW11" s="40"/>
       <c r="CZ11" s="45"/>
     </row>
-    <row r="12" spans="1:117" s="5" customFormat="1">
+    <row r="12" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -2072,9 +2074,9 @@
       <c r="CW12" s="40"/>
       <c r="CZ12" s="45"/>
     </row>
-    <row r="13" spans="1:117" s="5" customFormat="1">
+    <row r="13" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -2115,9 +2117,9 @@
       <c r="CW13" s="40"/>
       <c r="CZ13" s="45"/>
     </row>
-    <row r="14" spans="1:117" s="5" customFormat="1">
+    <row r="14" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -2158,9 +2160,9 @@
       <c r="CW14" s="40"/>
       <c r="CZ14" s="45"/>
     </row>
-    <row r="15" spans="1:117" s="5" customFormat="1">
+    <row r="15" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -2201,9 +2203,9 @@
       <c r="CW15" s="40"/>
       <c r="CZ15" s="45"/>
     </row>
-    <row r="16" spans="1:117" s="5" customFormat="1">
+    <row r="16" spans="1:117" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="10"/>
@@ -2245,9 +2247,9 @@
       <c r="CY16" s="30"/>
       <c r="CZ16" s="47"/>
     </row>
-    <row r="17" spans="1:104" s="5" customFormat="1">
+    <row r="17" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -2351,9 +2353,9 @@
       <c r="CW17" s="39"/>
       <c r="CZ17" s="45"/>
     </row>
-    <row r="18" spans="1:104" s="5" customFormat="1">
+    <row r="18" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -2459,9 +2461,9 @@
       <c r="CY18" s="30"/>
       <c r="CZ18" s="47"/>
     </row>
-    <row r="19" spans="1:104" s="5" customFormat="1">
+    <row r="19" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="10"/>
       <c r="S19" s="10"/>
@@ -2500,9 +2502,9 @@
       <c r="CW19" s="40"/>
       <c r="CZ19" s="45"/>
     </row>
-    <row r="20" spans="1:104" s="5" customFormat="1">
+    <row r="20" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" s="10"/>
       <c r="S20" s="10"/>
@@ -2547,9 +2549,9 @@
       <c r="CW20" s="40"/>
       <c r="CZ20" s="45"/>
     </row>
-    <row r="21" spans="1:104" s="5" customFormat="1">
+    <row r="21" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O21" s="10"/>
       <c r="S21" s="10"/>
@@ -2594,9 +2596,9 @@
       <c r="CW21" s="40"/>
       <c r="CZ21" s="45"/>
     </row>
-    <row r="22" spans="1:104" s="5" customFormat="1">
+    <row r="22" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O22" s="10"/>
       <c r="S22" s="10"/>
@@ -2641,9 +2643,9 @@
       <c r="CW22" s="40"/>
       <c r="CZ22" s="45"/>
     </row>
-    <row r="23" spans="1:104" s="5" customFormat="1">
+    <row r="23" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O23" s="10"/>
       <c r="S23" s="10"/>
@@ -2688,9 +2690,9 @@
       <c r="CW23" s="40"/>
       <c r="CZ23" s="45"/>
     </row>
-    <row r="24" spans="1:104" s="5" customFormat="1">
+    <row r="24" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O24" s="10"/>
       <c r="S24" s="10"/>
@@ -2734,9 +2736,9 @@
       <c r="CW24" s="40"/>
       <c r="CZ24" s="45"/>
     </row>
-    <row r="25" spans="1:104" s="5" customFormat="1">
+    <row r="25" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O25" s="10"/>
       <c r="S25" s="10"/>
@@ -2781,9 +2783,9 @@
       <c r="CW25" s="40"/>
       <c r="CZ25" s="45"/>
     </row>
-    <row r="26" spans="1:104" s="5" customFormat="1">
+    <row r="26" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O26" s="10"/>
       <c r="S26" s="10"/>
@@ -2827,9 +2829,9 @@
       <c r="CW26" s="40"/>
       <c r="CZ26" s="45"/>
     </row>
-    <row r="27" spans="1:104" s="5" customFormat="1">
+    <row r="27" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O27" s="10"/>
       <c r="S27" s="10"/>
@@ -2874,9 +2876,9 @@
       <c r="CW27" s="40"/>
       <c r="CZ27" s="45"/>
     </row>
-    <row r="28" spans="1:104" s="5" customFormat="1">
+    <row r="28" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" s="10"/>
       <c r="S28" s="10"/>
@@ -2918,9 +2920,9 @@
       <c r="CW28" s="40"/>
       <c r="CZ28" s="45"/>
     </row>
-    <row r="29" spans="1:104" s="49" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:104" s="49" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -3026,9 +3028,9 @@
       <c r="CY29" s="55"/>
       <c r="CZ29" s="58"/>
     </row>
-    <row r="30" spans="1:104" s="49" customFormat="1">
+    <row r="30" spans="1:104" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -3134,9 +3136,9 @@
       <c r="CY30" s="53"/>
       <c r="CZ30" s="52"/>
     </row>
-    <row r="31" spans="1:104" s="49" customFormat="1">
+    <row r="31" spans="1:104" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -3239,9 +3241,9 @@
       <c r="CV31" s="63"/>
       <c r="CZ31" s="51"/>
     </row>
-    <row r="32" spans="1:104" s="5" customFormat="1">
+    <row r="32" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
@@ -3347,94 +3349,94 @@
       <c r="CY32" s="9"/>
       <c r="CZ32" s="46"/>
     </row>
-    <row r="33" spans="48:50" s="5" customFormat="1">
+    <row r="33" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AV33" s="49"/>
       <c r="AW33" s="49"/>
       <c r="AX33" s="49"/>
     </row>
-    <row r="34" spans="48:50" s="5" customFormat="1"/>
-    <row r="35" spans="48:50" s="5" customFormat="1"/>
-    <row r="36" spans="48:50" s="5" customFormat="1"/>
-    <row r="37" spans="48:50" s="5" customFormat="1"/>
-    <row r="38" spans="48:50" s="5" customFormat="1"/>
-    <row r="39" spans="48:50" s="5" customFormat="1"/>
-    <row r="40" spans="48:50" s="5" customFormat="1"/>
-    <row r="41" spans="48:50" s="5" customFormat="1"/>
-    <row r="42" spans="48:50" s="5" customFormat="1"/>
-    <row r="43" spans="48:50" s="5" customFormat="1"/>
-    <row r="44" spans="48:50" s="5" customFormat="1"/>
-    <row r="45" spans="48:50" s="5" customFormat="1"/>
-    <row r="46" spans="48:50" s="5" customFormat="1"/>
-    <row r="47" spans="48:50" s="5" customFormat="1"/>
-    <row r="48" spans="48:50" s="5" customFormat="1"/>
-    <row r="49" s="5" customFormat="1"/>
-    <row r="50" s="5" customFormat="1"/>
-    <row r="51" s="5" customFormat="1"/>
-    <row r="52" s="5" customFormat="1"/>
-    <row r="53" s="5" customFormat="1"/>
-    <row r="54" s="5" customFormat="1"/>
-    <row r="55" s="5" customFormat="1"/>
-    <row r="56" s="5" customFormat="1"/>
-    <row r="57" s="5" customFormat="1"/>
-    <row r="58" s="5" customFormat="1"/>
-    <row r="59" s="5" customFormat="1"/>
-    <row r="60" s="5" customFormat="1"/>
-    <row r="61" s="5" customFormat="1"/>
-    <row r="62" s="5" customFormat="1"/>
-    <row r="63" s="5" customFormat="1"/>
-    <row r="64" s="5" customFormat="1"/>
-    <row r="65" s="5" customFormat="1"/>
-    <row r="66" s="5" customFormat="1"/>
-    <row r="67" s="5" customFormat="1"/>
-    <row r="68" s="5" customFormat="1"/>
-    <row r="69" s="5" customFormat="1"/>
-    <row r="70" s="5" customFormat="1"/>
-    <row r="71" s="5" customFormat="1"/>
-    <row r="72" s="5" customFormat="1"/>
-    <row r="73" s="5" customFormat="1"/>
-    <row r="74" s="5" customFormat="1"/>
-    <row r="75" s="5" customFormat="1"/>
-    <row r="76" s="5" customFormat="1"/>
-    <row r="77" s="5" customFormat="1"/>
-    <row r="78" s="5" customFormat="1"/>
-    <row r="79" s="5" customFormat="1"/>
-    <row r="80" s="5" customFormat="1"/>
-    <row r="81" s="5" customFormat="1"/>
-    <row r="82" s="5" customFormat="1"/>
-    <row r="83" s="5" customFormat="1"/>
-    <row r="84" s="5" customFormat="1"/>
-    <row r="85" s="5" customFormat="1"/>
-    <row r="86" s="5" customFormat="1"/>
-    <row r="87" s="5" customFormat="1"/>
-    <row r="88" s="5" customFormat="1"/>
-    <row r="89" s="5" customFormat="1"/>
-    <row r="90" s="5" customFormat="1"/>
-    <row r="91" s="5" customFormat="1"/>
-    <row r="92" s="5" customFormat="1"/>
-    <row r="93" s="5" customFormat="1"/>
-    <row r="94" s="5" customFormat="1"/>
-    <row r="95" s="5" customFormat="1"/>
-    <row r="96" s="5" customFormat="1"/>
-    <row r="97" s="5" customFormat="1"/>
-    <row r="98" s="5" customFormat="1"/>
-    <row r="99" s="5" customFormat="1"/>
-    <row r="100" s="5" customFormat="1"/>
-    <row r="101" s="5" customFormat="1"/>
-    <row r="102" s="5" customFormat="1"/>
-    <row r="103" s="5" customFormat="1"/>
+    <row r="34" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="48:50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="BH1:BO1"/>
-    <mergeCell ref="BP1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="CH1:CQ1"/>
-    <mergeCell ref="CR1:CZ1"/>
     <mergeCell ref="AX1:BG1"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AC1"/>
     <mergeCell ref="AD1:AM1"/>
     <mergeCell ref="AN1:AW1"/>
+    <mergeCell ref="BH1:BO1"/>
+    <mergeCell ref="BP1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="CH1:CQ1"/>
+    <mergeCell ref="CR1:CZ1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3442,535 +3444,535 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="17.1640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43670</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43671</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43672</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43675</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43676</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43677</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43678</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43679</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43682</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43683</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43684</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43685</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43686</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43689</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43690</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43691</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43692</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43693</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43696</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43697</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43698</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43699</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43703</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43704</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43705</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43706</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43707</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43710</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43711</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43712</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43713</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43714</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43717</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43718</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43719</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43720</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43721</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43724</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43725</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43726</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43727</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43728</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43731</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43732</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43733</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43734</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43735</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43738</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43739</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43740</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43741</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43742</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43745</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43746</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43747</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43748</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43749</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43754</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43755</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43756</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43759</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43760</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43761</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43762</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>43763</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>43766</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>43767</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43768</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43769</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43770</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43773</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43774</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43775</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43776</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43777</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43780</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43781</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43782</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43783</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43787</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43788</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43790</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43791</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43794</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43795</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43796</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43797</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43798</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43801</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43802</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>43803</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43804</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>43805</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>43808</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>43809</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43810</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>43811</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>43812</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>43815</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>43816</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>43817</v>
       </c>
@@ -3982,21 +3984,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F2B6D-1BE8-419F-B95D-A94326CEB6C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="130.42578125" customWidth="1"/>
-    <col min="2" max="2" width="147.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" customWidth="1"/>
+    <col min="1" max="1" width="130.5" customWidth="1"/>
+    <col min="2" max="2" width="147.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15">
         <v>1</v>
       </c>
@@ -4007,148 +4009,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="67" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="68" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="68" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="68" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="68" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="68" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="22" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="22" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="22" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="22" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="22" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="22" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="22" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="22" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="22" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="22" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="22" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="22" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4157,316 +4159,316 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="147.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="147.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="70" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="72" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="71" t="s">
+    <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="73" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18" customHeight="1">
-      <c r="A54" s="73" t="s">
+    <row r="55" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="73" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A55" s="73" t="s">
+    <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="73" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" customHeight="1">
-      <c r="A56" s="73" t="s">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="73" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A57" s="73" t="s">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="73" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A58" s="73" t="s">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A59" s="73" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="70" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="70" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4476,21 +4478,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001C0BDCB75C490F449996D271113E7085" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="f6c70adb2b0a037f611485c71da12b27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56135199-fddc-46f9-8522-4d2f2df906d6" xmlns:ns3="616ddcb6-37a4-4b68-9e62-eadd2126515b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf45a61f76f043a6cec32f5993157112" ns2:_="" ns3:_="">
     <xsd:import namespace="56135199-fddc-46f9-8522-4d2f2df906d6"/>
@@ -4687,14 +4674,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4639109-8531-4A63-9E6C-72083ACEF034}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5364538E-9F44-4A5B-B183-A250564DCD26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56135199-fddc-46f9-8522-4d2f2df906d6"/>
+    <ds:schemaRef ds:uri="616ddcb6-37a4-4b68-9e62-eadd2126515b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FAC10BE-19DD-4C33-8E92-01F461791A75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FAC10BE-19DD-4C33-8E92-01F461791A75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5364538E-9F44-4A5B-B183-A250564DCD26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4639109-8531-4A63-9E6C-72083ACEF034}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>